--- a/biology/Médecine/Augustin_Cabanès/Augustin_Cabanès.xlsx
+++ b/biology/Médecine/Augustin_Cabanès/Augustin_Cabanès.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Augustin_Caban%C3%A8s</t>
+          <t>Augustin_Cabanès</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Augustin Cabanès, né le 30 avril 1862 à Gourdon (Lot) et mort le 5 mai 1928 à Paris, est un médecin, journaliste et historien de la médecine français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Augustin_Caban%C3%A8s</t>
+          <t>Augustin_Cabanès</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Docteur en médecine de la faculté de médecine de Paris, médecin de la préfecture de la Seine, secrétaire de la Société médico-historique, Augustin Cabanès est une figure phare en matière d’histoire de la médecine, connu pour ses ouvrages relatifs à des mystères de l'histoire, et de l'histoire de la médecine en particulier.
 En 1880, il commença ses études médicales à Bordeaux. Il vint bientôt à Paris suivre les cours des écoles de médecine et de pharmacie. En 1881, il fut reçu à l’internat des hôpitaux de Paris. En 1886, il obtint son diplôme de pharmacien de 1re classe. En 1889, il soutenait sa thèse de doctorat en médecine, avec une étude physiologique, chimique, botanique et thérapeutique intitulée De l’Hydrastis canadensis.
-De bonne heure attiré par les lettres, Cabanès avait fait ses débuts, en 1885, dans les recherches spéciales auxquelles il devait se consacrer, par une étude sur les Souverains névropathes, travail qui parut dans le Progrès médical. Vers la même époque, il commença à collaborer à L'Intermédiaire des chercheurs et curieux, dirigé par Lucien Faucou. Peu à peu, il entra à la rédaction de plusieurs grands organes scientifiques parisiens. En 1887, il fut chargé du feuilleton et du Premier-Paris[1] au Journal de médecine de Paris. À la France médicale, il écrivit de nombreux articles sous le pseudonyme de « Docteur Quercy » ; de même à la Gazette des hôpitaux, au Bulletin de thérapeutique, etc.
+De bonne heure attiré par les lettres, Cabanès avait fait ses débuts, en 1885, dans les recherches spéciales auxquelles il devait se consacrer, par une étude sur les Souverains névropathes, travail qui parut dans le Progrès médical. Vers la même époque, il commença à collaborer à L'Intermédiaire des chercheurs et curieux, dirigé par Lucien Faucou. Peu à peu, il entra à la rédaction de plusieurs grands organes scientifiques parisiens. En 1887, il fut chargé du feuilleton et du Premier-Paris au Journal de médecine de Paris. À la France médicale, il écrivit de nombreux articles sous le pseudonyme de « Docteur Quercy » ; de même à la Gazette des hôpitaux, au Bulletin de thérapeutique, etc.
 Cabanès aborda ensuite les revues littéraires : la Revue hebdomadaire, la Grande Encyclopédie, la Bévue des bévues, le Magasin pittoresque, etc. ; enfin les journaux politiques : Le Figaro, Le Gaulois, Le Journal, L'Éclair, etc.
 En décembre 1894, Cabanès fonda la Chronique médicale, bimensuel où il publiait des articles inédits sur la santé des personnages de la littérature et de l’histoire, sur les relations de la médecine avec l’histoire, la littérature, l’art, la sociologie, l’économie politique, etc.
 Outre cette tâche périodique, Cabanès a écrit, sur un ton toujours plaisant, une douzaine de volumes, dont plusieurs traditionalistes.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Augustin_Caban%C3%A8s</t>
+          <t>Augustin_Cabanès</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,8 +565,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Histoire médicale
-Molière et les médecins, Paris, bureaux de la Chronique médicale, 1895.
+          <t>Histoire médicale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Molière et les médecins, Paris, bureaux de la Chronique médicale, 1895.
 Les Curiosités de la médecine, 3 vol., 1900-1927.
 Contient : I. … II. Les Cinq Sens. III. Les Fonctions de la vie. IV. Le Sixième Sens (sens génésique). Organes de la génération. Fonction sexuelle. Aberrations génitales. Curiosités relatives aux seins.
 Poisons et sortilèges, avec le docteur Lucien Nass (1874-1933), 2 vol., Paris, Plon, 1903.
@@ -580,9 +599,43 @@
 Médecins amateurs, 1932.
 Contient : Léonard de Vinci. Cervantès. Descartes. La Fontaine. Mme de Sévigné. Diderot. Mirabeau. Bernardin de Saint-Pierre. Sébastien Mercier. Maine de Biran. Prince de Ligne.
 Mœurs intimes du passé, cinquième série, « Les fléaux de l'humanité peste, lèpre, choléra, variole, grippe », Paris/Saint-Denis, Librairie Albin Michel, 1939, 479 p. 80.
-Chirurgiens et blessés à travers l'histoire. Des origines à la Croix-Rouge, sans date.
-Histoire
-Marat inconnu : l'homme privé, le médecin, le savant, 1891.
+Chirurgiens et blessés à travers l'histoire. Des origines à la Croix-Rouge, sans date.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Augustin_Cabanès</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Augustin_Caban%C3%A8s</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Marat inconnu : l'homme privé, le médecin, le savant, 1891.
 Le Cabinet secret de l'histoire entr'ouvert par un médecin, 3 vol., 1897-1898.
 Balzac ignoré, 1899.
 Les Morts mystérieuses de l'histoire, 2 vol., 1901-1911.
@@ -590,7 +643,7 @@
 Les Indiscrétions de l'Histoire, 6 vol., 1903-1907.
 La Névrose révolutionnaire, 2.vol., en collaboration avec le docteur Lucien Nass, Paris, Albin Michel, 1906.
 Mœurs intimes du passé, 12 vol., 1908-1936.
-Contient : I. Comment nos aïeux se protégeaient du froid, comment se mouchaient nos aïeules, l'origine du peigne, la propreté des mains, etc.[2] II. La vie aux bains. III. La faune monstrueuse des cathédrales, en marge des vieux missels, les folies du carnaval, les processions licencieuses, les offices burlesques, etc. IV. La vie d'étudiant. V. Les fléaux de l'humanité, peste, lèpre, choléra, variole, grippe. VI. Usages et coutumes disparus. VII. Enfances royales (de Charles VI à Louis XIV). La grossesse à la cour de France. Comment on élevait princes et princesses. VIII. Éducation de princes (du grand Dauphin au prince impérial). Les premières années du grand Dauphin. L'enfance de Louis XV. L'éducation de Napoléon III et du prince impérial. IX. Les moyens de transport. X. La vie thermale au temps passé. XI. Le Sabbat a-t-il existé ? XII. Villes d'eaux à la mode du grand siècle.
+Contient : I. Comment nos aïeux se protégeaient du froid, comment se mouchaient nos aïeules, l'origine du peigne, la propreté des mains, etc. II. La vie aux bains. III. La faune monstrueuse des cathédrales, en marge des vieux missels, les folies du carnaval, les processions licencieuses, les offices burlesques, etc. IV. La vie d'étudiant. V. Les fléaux de l'humanité, peste, lèpre, choléra, variole, grippe. VI. Usages et coutumes disparus. VII. Enfances royales (de Charles VI à Louis XIV). La grossesse à la cour de France. Comment on élevait princes et princesses. VIII. Éducation de princes (du grand Dauphin au prince impérial). Les premières années du grand Dauphin. L'enfance de Louis XV. L'éducation de Napoléon III et du prince impérial. IX. Les moyens de transport. X. La vie thermale au temps passé. XI. Le Sabbat a-t-il existé ? XII. Villes d'eaux à la mode du grand siècle.
 Fous couronnés, 1914.
 Contient : Jeanne la Folle. Philippe II d'Espagne. Pierre le Grand. Pierre III, Paul Ier de Russie. Christian VII de Danemark. Othon et Louis II de Bavière.
 Une Allemande à la cour de France : la princesse Palatine. Les petits talents du grand Frédéric. Un médecin prussien, espion dans les salons romantiques, 1916.
